--- a/Input/carter_approval.xlsx
+++ b/Input/carter_approval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="7">
   <si>
     <t>start_date_carter</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>unsure_carter</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>Carter</t>
   </si>
 </sst>
 </file>
@@ -390,13 +396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +418,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>29560</v>
       </c>
@@ -429,8 +438,11 @@
       <c r="E2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>29543</v>
       </c>
@@ -446,8 +458,11 @@
       <c r="E3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>29473</v>
       </c>
@@ -463,8 +478,11 @@
       <c r="E4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>29445</v>
       </c>
@@ -480,8 +498,11 @@
       <c r="E5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>29410</v>
       </c>
@@ -497,8 +518,11 @@
       <c r="E6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>29396</v>
       </c>
@@ -514,8 +538,11 @@
       <c r="E7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>29382</v>
       </c>
@@ -531,8 +558,11 @@
       <c r="E8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>29368</v>
       </c>
@@ -548,8 +578,11 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>29354</v>
       </c>
@@ -565,8 +598,11 @@
       <c r="E10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>29340</v>
       </c>
@@ -582,8 +618,11 @@
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>29319</v>
       </c>
@@ -599,8 +638,11 @@
       <c r="E12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>29304</v>
       </c>
@@ -616,8 +658,11 @@
       <c r="E13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>29284</v>
       </c>
@@ -633,8 +678,11 @@
       <c r="E14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>29277</v>
       </c>
@@ -650,8 +698,11 @@
       <c r="E15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>29249</v>
       </c>
@@ -667,8 +718,11 @@
       <c r="E16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>29242</v>
       </c>
@@ -684,8 +738,11 @@
       <c r="E17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>29222</v>
       </c>
@@ -701,8 +758,11 @@
       <c r="E18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>29193</v>
       </c>
@@ -718,8 +778,11 @@
       <c r="E19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>29186</v>
       </c>
@@ -735,8 +798,11 @@
       <c r="E20">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>29172</v>
       </c>
@@ -752,8 +818,11 @@
       <c r="E21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>29158</v>
       </c>
@@ -769,8 +838,11 @@
       <c r="E22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>29140</v>
       </c>
@@ -786,8 +858,11 @@
       <c r="E23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>29130</v>
       </c>
@@ -803,8 +878,11 @@
       <c r="E24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>29123</v>
       </c>
@@ -820,8 +898,11 @@
       <c r="E25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>29102</v>
       </c>
@@ -837,8 +918,11 @@
       <c r="E26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>29081</v>
       </c>
@@ -854,8 +938,11 @@
       <c r="E27">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>29074</v>
       </c>
@@ -871,8 +958,11 @@
       <c r="E28">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>29067</v>
       </c>
@@ -888,8 +978,11 @@
       <c r="E29">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>29066</v>
       </c>
@@ -905,8 +998,11 @@
       <c r="E30">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>29046</v>
       </c>
@@ -922,8 +1018,11 @@
       <c r="E31">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>29032</v>
       </c>
@@ -939,8 +1038,11 @@
       <c r="E32">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>29025</v>
       </c>
@@ -956,8 +1058,11 @@
       <c r="E33">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>29004</v>
       </c>
@@ -973,8 +1078,11 @@
       <c r="E34">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>28990</v>
       </c>
@@ -990,8 +1098,11 @@
       <c r="E35">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>28976</v>
       </c>
@@ -1007,8 +1118,11 @@
       <c r="E36">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>28948</v>
       </c>
@@ -1024,8 +1138,11 @@
       <c r="E37">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>28934</v>
       </c>
@@ -1041,8 +1158,11 @@
       <c r="E38">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>28927</v>
       </c>
@@ -1058,8 +1178,11 @@
       <c r="E39">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>28913</v>
       </c>
@@ -1075,8 +1198,11 @@
       <c r="E40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>28906</v>
       </c>
@@ -1092,8 +1218,11 @@
       <c r="E41">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>28885</v>
       </c>
@@ -1109,8 +1238,11 @@
       <c r="E42">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>28871</v>
       </c>
@@ -1126,8 +1258,11 @@
       <c r="E43">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>28857</v>
       </c>
@@ -1143,8 +1278,11 @@
       <c r="E44">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>28829</v>
       </c>
@@ -1160,8 +1298,11 @@
       <c r="E45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>28822</v>
       </c>
@@ -1177,8 +1318,11 @@
       <c r="E46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>28787</v>
       </c>
@@ -1194,8 +1338,11 @@
       <c r="E47">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>28752</v>
       </c>
@@ -1211,8 +1358,11 @@
       <c r="E48">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>28744</v>
       </c>
@@ -1228,8 +1378,11 @@
       <c r="E49">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>28738</v>
       </c>
@@ -1245,8 +1398,11 @@
       <c r="E50">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>28717</v>
       </c>
@@ -1262,8 +1418,11 @@
       <c r="E51">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>28710</v>
       </c>
@@ -1279,8 +1438,11 @@
       <c r="E52">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>28703</v>
       </c>
@@ -1296,8 +1458,11 @@
       <c r="E53">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>28689</v>
       </c>
@@ -1313,8 +1478,11 @@
       <c r="E54">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>28676</v>
       </c>
@@ -1330,8 +1498,11 @@
       <c r="E55">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>28654</v>
       </c>
@@ -1347,8 +1518,11 @@
       <c r="E56">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>28640</v>
       </c>
@@ -1364,8 +1538,11 @@
       <c r="E57">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>28626</v>
       </c>
@@ -1381,8 +1558,11 @@
       <c r="E58">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>28613</v>
       </c>
@@ -1398,8 +1578,11 @@
       <c r="E59">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>28605</v>
       </c>
@@ -1415,8 +1598,11 @@
       <c r="E60">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>28591</v>
       </c>
@@ -1432,8 +1618,11 @@
       <c r="E61">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>28577</v>
       </c>
@@ -1449,8 +1638,11 @@
       <c r="E62">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>28556</v>
       </c>
@@ -1466,8 +1658,11 @@
       <c r="E63">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>28550</v>
       </c>
@@ -1483,8 +1678,11 @@
       <c r="E64">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>28542</v>
       </c>
@@ -1500,8 +1698,11 @@
       <c r="E65">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>28532</v>
       </c>
@@ -1517,8 +1718,11 @@
       <c r="E66">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <v>28507</v>
       </c>
@@ -1534,8 +1738,11 @@
       <c r="E67">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <v>28493</v>
       </c>
@@ -1551,8 +1758,11 @@
       <c r="E68">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <v>28465</v>
       </c>
@@ -1568,8 +1778,11 @@
       <c r="E69">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
         <v>28444</v>
       </c>
@@ -1585,8 +1798,11 @@
       <c r="E70">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <v>28430</v>
       </c>
@@ -1602,8 +1818,11 @@
       <c r="E71">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <v>28423</v>
       </c>
@@ -1619,8 +1838,11 @@
       <c r="E72">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <v>28416</v>
       </c>
@@ -1636,8 +1858,11 @@
       <c r="E73">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <v>28409</v>
       </c>
@@ -1653,8 +1878,11 @@
       <c r="E74">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <v>28395</v>
       </c>
@@ -1670,8 +1898,11 @@
       <c r="E75">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <v>28374</v>
       </c>
@@ -1687,8 +1918,11 @@
       <c r="E76">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <v>28353</v>
       </c>
@@ -1704,8 +1938,11 @@
       <c r="E77">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <v>28339</v>
       </c>
@@ -1721,8 +1958,11 @@
       <c r="E78">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>28325</v>
       </c>
@@ -1738,8 +1978,11 @@
       <c r="E79">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <v>28311</v>
       </c>
@@ -1755,8 +1998,11 @@
       <c r="E80">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>28290</v>
       </c>
@@ -1772,8 +2018,11 @@
       <c r="E81">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>28276</v>
       </c>
@@ -1789,8 +2038,11 @@
       <c r="E82">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>28262</v>
       </c>
@@ -1806,8 +2058,11 @@
       <c r="E83">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>28251</v>
       </c>
@@ -1823,8 +2078,11 @@
       <c r="E84">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>28244</v>
       </c>
@@ -1840,8 +2098,11 @@
       <c r="E85">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>28227</v>
       </c>
@@ -1857,8 +2118,11 @@
       <c r="E86">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>28213</v>
       </c>
@@ -1874,8 +2138,11 @@
       <c r="E87">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>28206</v>
       </c>
@@ -1891,8 +2158,11 @@
       <c r="E88">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <v>28199</v>
       </c>
@@ -1908,8 +2178,11 @@
       <c r="E89">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <v>28185</v>
       </c>
@@ -1925,8 +2198,11 @@
       <c r="E90">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <v>28171</v>
       </c>
@@ -1942,8 +2218,11 @@
       <c r="E91">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <v>28160</v>
       </c>
@@ -1958,6 +2237,9 @@
       </c>
       <c r="E92">
         <v>26</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
